--- a/Lainkusanagi OSCP Like (1).xlsx
+++ b/Lainkusanagi OSCP Like (1).xlsx
@@ -1,14 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vatit\Desktop\pnpt\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72B3F32-0AF9-4C03-A22C-C42656F7AC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="OSCP List" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Red Teaming List" sheetId="2" r:id="rId5"/>
+    <sheet name="OSCP List" sheetId="1" r:id="rId1"/>
+    <sheet name="Red Teaming List" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="rEz409lmgdbQ/IKLB4ticYSHo26X6hsaE+TBpEdhpUM="/>
     </ext>
@@ -31,8 +43,9 @@
     <r>
       <rPr>
         <i/>
+        <sz val="11"/>
         <color rgb="FF00FF00"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">-Before and while doing PEN 200 course and after failing my first attempt I completed multiple machines in multiple hacking platforms.
 -I did all the PEN 200 course along with all the challenge labs that where introduced in the 2023 version of the PEN 200 (including the challenge lab network other people skip).
@@ -45,9 +58,10 @@
     <r>
       <rPr>
         <i/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>https://x.com/unknownseeker99
 https://www.reddit.com/user/JosefumiKafka/
@@ -58,8 +72,9 @@
     <r>
       <rPr>
         <i/>
+        <sz val="11"/>
         <color rgb="FF00FF00"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">-This is a list of machines I consider good for practice before doing the PEN 200 course, challenge labs and OSCP exam however this is not a replacement for the actual course and I recommend you to go through all of the course, exercises and challenges before attempting the exam.
 -The machines in this list where selected because either they teach important techniques and concepts found in the course and labs, have similar style to machines made by offsec or where in a way crucial to helping me develop my methodology and help me pass my exam.
@@ -69,9 +84,10 @@
     <r>
       <rPr>
         <i/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>https://buymeacoffee.com/lainkusanagi</t>
     </r>
@@ -79,37 +95,37 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF00FF00"/>
         <rFont val="Calibri"/>
-        <color rgb="FF00FF00"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">Useful forks made by the community (I do not maintain these forks so they may not reflect latest changes):
 -List with difficulty ratings made by Jubba402 </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t xml:space="preserve">https://docs.google.com/spreadsheets/d/13YoNQuY6HC5ot-lZiX2tY9pR5mvwnp3xV6lHs78DlqQ/
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF00FF00"/>
         <rFont val="Calibri"/>
-        <color rgb="FF00FF00"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">-Study tracker combining this list and TJ Null list with difficulty ratings made by Obeyeater </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>https://docs.google.com/spreadsheets/d/1nzEN0G6GzneWCfs6qte6Qqv-i8cV_j6po-tFlZAOx1k/</t>
     </r>
@@ -976,17 +992,19 @@
     <r>
       <rPr>
         <i/>
+        <sz val="11"/>
         <color rgb="FF00FF00"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">-Aside from OSCP I have also done Active Directory and Red Teaming related certifications such as PNPT, CRTP and CRTO. I also like to research about malware and evasion and post it on my Medium: </t>
     </r>
     <r>
       <rPr>
         <i/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>https://medium.com/@luisgerardomoret_69654</t>
     </r>
@@ -1250,24 +1268,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="25.0"/>
+      <sz val="25"/>
       <color rgb="FFA4C2F4"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color rgb="FF00FF00"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -1275,61 +1293,97 @@
     <font>
       <i/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF00FF00"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF00FF00"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="22.0"/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF00FF00"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="9.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1337,7 +1391,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1377,11 +1431,21 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1396,8 +1460,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1407,6 +1473,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1419,152 +1486,122 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="55">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="4" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="6" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="4" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="6" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="7" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="7" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="4" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1754,2314 +1791,2354 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I1033"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.71"/>
-    <col customWidth="1" min="2" max="2" width="16.29"/>
-    <col customWidth="1" min="3" max="3" width="33.71"/>
-    <col customWidth="1" min="4" max="4" width="23.14"/>
-    <col customWidth="1" min="5" max="5" width="21.29"/>
-    <col customWidth="1" min="6" max="6" width="30.0"/>
-    <col customWidth="1" min="7" max="7" width="31.14"/>
-    <col customWidth="1" min="8" max="8" width="30.29"/>
-    <col customWidth="1" min="9" max="9" width="16.29"/>
-    <col customWidth="1" min="10" max="10" width="15.71"/>
-    <col customWidth="1" min="11" max="26" width="8.71"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" ht="21.0" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="43" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" ht="195.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" spans="1:9" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="44" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" ht="42.75" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="E5" s="45" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" ht="58.5" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+    </row>
+    <row r="6" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="20" t="s">
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="20" t="s">
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="25" t="s">
+      <c r="G15" s="11"/>
+      <c r="H15" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="E19" s="16" t="s">
+      <c r="C19" s="11"/>
+      <c r="E19" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="20" t="s">
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="16" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="20" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="20" t="s">
+      <c r="F22" s="14"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="20" t="s">
+      <c r="F23" s="14"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="16" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="18"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="20" t="s">
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="13" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="20" t="s">
+    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="23" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="20" t="s">
+    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="23" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="19" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="18"/>
-      <c r="E29" s="26" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="11"/>
+      <c r="E29" s="19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="18"/>
-      <c r="E30" s="26" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="11"/>
+      <c r="E30" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="27" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="19" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="20" t="s">
+    <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="28" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="21" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="16" t="s">
+    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="28" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="16" t="s">
+    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="28" t="s">
+      <c r="B34" s="14"/>
+      <c r="C34" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="16" t="s">
+    <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="29"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="16" t="s">
+      <c r="B35" s="14"/>
+      <c r="C35" s="22"/>
+    </row>
+    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="29"/>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="16" t="s">
+      <c r="B36" s="14"/>
+      <c r="C36" s="22"/>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="29"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="30" t="s">
+      <c r="B37" s="14"/>
+      <c r="C37" s="22"/>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="16" t="s">
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="34"/>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="16" t="s">
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="16" t="s">
+      <c r="B40" s="26"/>
+      <c r="C40" s="27"/>
+    </row>
+    <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="34"/>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="16" t="s">
+      <c r="B41" s="26"/>
+      <c r="C41" s="27"/>
+    </row>
+    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="34"/>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="16" t="s">
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+    </row>
+    <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="34"/>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="16" t="s">
+      <c r="B43" s="26"/>
+      <c r="C43" s="27"/>
+    </row>
+    <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="34"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="16" t="s">
+      <c r="B44" s="26"/>
+      <c r="C44" s="27"/>
+    </row>
+    <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="34"/>
-    </row>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="30.75" customHeight="1">
-      <c r="A47" s="6" t="s">
+      <c r="B45" s="26"/>
+      <c r="C45" s="27"/>
+    </row>
+    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="E47" s="45" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="35" t="s">
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+    </row>
+    <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="E48" s="36" t="s">
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="E48" s="51" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" s="11" t="s">
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+    </row>
+    <row r="49" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="11" t="s">
+      <c r="D49" s="28"/>
+      <c r="E49" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="38" t="s">
+      <c r="F49" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="39"/>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="20" t="s">
+      <c r="G49" s="30"/>
+    </row>
+    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F50" s="40" t="s">
+      <c r="F50" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="G50" s="41"/>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="20" t="s">
+      <c r="G50" s="32"/>
+    </row>
+    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F51" s="40" t="s">
+      <c r="F51" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="G51" s="41"/>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="20" t="s">
+      <c r="G51" s="32"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="F52" s="42" t="s">
+      <c r="F52" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="G52" s="41"/>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="20" t="s">
+      <c r="G52" s="32"/>
+    </row>
+    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="42" t="s">
+      <c r="F53" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="G53" s="41"/>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="20" t="s">
+      <c r="G53" s="32"/>
+    </row>
+    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="F54" s="42" t="s">
+      <c r="F54" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="G54" s="41"/>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="20" t="s">
+      <c r="G54" s="32"/>
+    </row>
+    <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E55" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="F55" s="42" t="s">
+      <c r="F55" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="G55" s="41"/>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="20" t="s">
+      <c r="G55" s="32"/>
+    </row>
+    <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="E56" s="20" t="s">
+      <c r="C56" s="16"/>
+      <c r="E56" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F56" s="42" t="s">
+      <c r="F56" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="G56" s="41"/>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="20" t="s">
+      <c r="G56" s="32"/>
+    </row>
+    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E57" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="F57" s="42" t="s">
+      <c r="F57" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="G57" s="41"/>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="20" t="s">
+      <c r="G57" s="32"/>
+    </row>
+    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="F58" s="40"/>
-      <c r="G58" s="41"/>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="20" t="s">
+      <c r="F58" s="31"/>
+      <c r="G58" s="32"/>
+    </row>
+    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C59" s="18"/>
-      <c r="E59" s="16" t="s">
+      <c r="C59" s="11"/>
+      <c r="E59" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F59" s="40"/>
-      <c r="G59" s="41"/>
-    </row>
-    <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="20" t="s">
+      <c r="F59" s="31"/>
+      <c r="G59" s="32"/>
+    </row>
+    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C60" s="18"/>
-      <c r="E60" s="16" t="s">
+      <c r="C60" s="11"/>
+      <c r="E60" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F60" s="40"/>
-      <c r="G60" s="41"/>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="20" t="s">
+      <c r="F60" s="31"/>
+      <c r="G60" s="32"/>
+    </row>
+    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="C61" s="18"/>
-      <c r="E61" s="16" t="s">
+      <c r="C61" s="11"/>
+      <c r="E61" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="20" t="s">
+      <c r="F61" s="14"/>
+    </row>
+    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C62" s="18"/>
-      <c r="E62" s="16" t="s">
+      <c r="C62" s="11"/>
+      <c r="E62" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="20" t="s">
+      <c r="F62" s="14"/>
+    </row>
+    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C63" s="18"/>
-      <c r="E63" s="16" t="s">
+      <c r="C63" s="11"/>
+      <c r="E63" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="20" t="s">
+      <c r="F63" s="14"/>
+    </row>
+    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="F64" s="21"/>
-    </row>
-    <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="20" t="s">
+      <c r="F64" s="14"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C65" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="F65" s="21"/>
-    </row>
-    <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="20" t="s">
+      <c r="F65" s="14"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C66" s="28"/>
-      <c r="E66" s="16" t="s">
+      <c r="C66" s="21"/>
+      <c r="E66" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="F66" s="21"/>
-    </row>
-    <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="20" t="s">
+      <c r="F66" s="14"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="28"/>
-      <c r="E67" s="16" t="s">
+      <c r="B67" s="14"/>
+      <c r="C67" s="21"/>
+      <c r="E67" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="F67" s="21"/>
-    </row>
-    <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="20" t="s">
+      <c r="F67" s="14"/>
+    </row>
+    <row r="68" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="28"/>
-      <c r="E68" s="16" t="s">
+      <c r="B68" s="14"/>
+      <c r="C68" s="21"/>
+      <c r="E68" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="F68" s="21"/>
-    </row>
-    <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="16" t="s">
+      <c r="F68" s="14"/>
+    </row>
+    <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="28"/>
-      <c r="E69" s="16" t="s">
+      <c r="B69" s="14"/>
+      <c r="C69" s="21"/>
+      <c r="E69" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="F69" s="21"/>
-    </row>
-    <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="20" t="s">
+      <c r="F69" s="14"/>
+    </row>
+    <row r="70" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="28"/>
-      <c r="E70" s="20" t="s">
+      <c r="B70" s="14"/>
+      <c r="C70" s="21"/>
+      <c r="E70" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="20" t="s">
+      <c r="F70" s="14"/>
+    </row>
+    <row r="71" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="B71" s="21"/>
-      <c r="C71" s="28"/>
-      <c r="E71" s="16" t="s">
+      <c r="B71" s="14"/>
+      <c r="C71" s="21"/>
+      <c r="E71" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="20" t="s">
+      <c r="F71" s="14"/>
+    </row>
+    <row r="72" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="B72" s="21"/>
-      <c r="C72" s="28"/>
-      <c r="E72" s="16" t="s">
+      <c r="B72" s="14"/>
+      <c r="C72" s="21"/>
+      <c r="E72" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="F72" s="21"/>
-    </row>
-    <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="16" t="s">
+      <c r="F72" s="14"/>
+    </row>
+    <row r="73" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B73" s="21"/>
-      <c r="C73" s="28"/>
-      <c r="E73" s="16" t="s">
+      <c r="B73" s="14"/>
+      <c r="C73" s="21"/>
+      <c r="E73" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="F73" s="21"/>
-    </row>
-    <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="20" t="s">
+      <c r="F73" s="14"/>
+    </row>
+    <row r="74" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="B74" s="21"/>
-      <c r="C74" s="28"/>
-      <c r="E74" s="16" t="s">
+      <c r="B74" s="14"/>
+      <c r="C74" s="21"/>
+      <c r="E74" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="F74" s="21"/>
-    </row>
-    <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="20" t="s">
+      <c r="F74" s="14"/>
+    </row>
+    <row r="75" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="B75" s="21"/>
-      <c r="C75" s="28"/>
-      <c r="E75" s="16" t="s">
+      <c r="B75" s="14"/>
+      <c r="C75" s="21"/>
+      <c r="E75" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F75" s="21"/>
-    </row>
-    <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="20" t="s">
+      <c r="F75" s="14"/>
+    </row>
+    <row r="76" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="B76" s="21"/>
-      <c r="C76" s="28"/>
-      <c r="E76" s="16" t="s">
+      <c r="B76" s="14"/>
+      <c r="C76" s="21"/>
+      <c r="E76" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="F76" s="21"/>
-    </row>
-    <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="16" t="s">
+      <c r="F76" s="14"/>
+    </row>
+    <row r="77" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B77" s="21"/>
-      <c r="C77" s="28"/>
-      <c r="E77" s="16" t="s">
+      <c r="B77" s="14"/>
+      <c r="C77" s="21"/>
+      <c r="E77" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="F77" s="21"/>
-    </row>
-    <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="20" t="s">
+      <c r="F77" s="14"/>
+    </row>
+    <row r="78" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="B78" s="21"/>
-      <c r="C78" s="28"/>
-      <c r="E78" s="16" t="s">
+      <c r="B78" s="14"/>
+      <c r="C78" s="21"/>
+      <c r="E78" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="F78" s="21"/>
-    </row>
-    <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="16" t="s">
+      <c r="F78" s="14"/>
+    </row>
+    <row r="79" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B79" s="21"/>
-      <c r="C79" s="28"/>
-      <c r="E79" s="16" t="s">
+      <c r="B79" s="14"/>
+      <c r="C79" s="21"/>
+      <c r="E79" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="F79" s="21"/>
-    </row>
-    <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="16" t="s">
+      <c r="F79" s="14"/>
+    </row>
+    <row r="80" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B80" s="21"/>
-      <c r="C80" s="28"/>
-      <c r="E80" s="16" t="s">
+      <c r="B80" s="14"/>
+      <c r="C80" s="21"/>
+      <c r="E80" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="F80" s="21"/>
-    </row>
-    <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="16" t="s">
+      <c r="F80" s="14"/>
+    </row>
+    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B81" s="21"/>
-      <c r="C81" s="28"/>
-    </row>
-    <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="16" t="s">
+      <c r="B81" s="14"/>
+      <c r="C81" s="21"/>
+    </row>
+    <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B82" s="21"/>
-      <c r="C82" s="28"/>
-    </row>
-    <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="16" t="s">
+      <c r="B82" s="14"/>
+      <c r="C82" s="21"/>
+    </row>
+    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="28"/>
-    </row>
-    <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="16" t="s">
+      <c r="B83" s="14"/>
+      <c r="C83" s="21"/>
+    </row>
+    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="B84" s="21"/>
-      <c r="C84" s="28"/>
-    </row>
-    <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="16" t="s">
+      <c r="B84" s="14"/>
+      <c r="C84" s="21"/>
+    </row>
+    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B85" s="21"/>
-      <c r="C85" s="28"/>
-    </row>
-    <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="16" t="s">
+      <c r="B85" s="14"/>
+      <c r="C85" s="21"/>
+    </row>
+    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B86" s="21"/>
-      <c r="C86" s="28"/>
-    </row>
-    <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="16" t="s">
+      <c r="B86" s="14"/>
+      <c r="C86" s="21"/>
+    </row>
+    <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B87" s="21"/>
-      <c r="C87" s="28"/>
-    </row>
-    <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" s="16" t="s">
+      <c r="B87" s="14"/>
+      <c r="C87" s="21"/>
+    </row>
+    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B88" s="21"/>
-      <c r="C88" s="28"/>
-    </row>
-    <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="16" t="s">
+      <c r="B88" s="14"/>
+      <c r="C88" s="21"/>
+    </row>
+    <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B89" s="21"/>
-      <c r="C89" s="28"/>
-    </row>
-    <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" s="16" t="s">
+      <c r="B89" s="14"/>
+      <c r="C89" s="21"/>
+    </row>
+    <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B90" s="21"/>
-      <c r="C90" s="28"/>
-    </row>
-    <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" s="16" t="s">
+      <c r="B90" s="14"/>
+      <c r="C90" s="21"/>
+    </row>
+    <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B91" s="21"/>
-      <c r="C91" s="28"/>
-    </row>
-    <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="16" t="s">
+      <c r="B91" s="14"/>
+      <c r="C91" s="21"/>
+    </row>
+    <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B92" s="21"/>
-      <c r="C92" s="28"/>
-    </row>
-    <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="16" t="s">
+      <c r="B92" s="14"/>
+      <c r="C92" s="21"/>
+    </row>
+    <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B93" s="21"/>
-      <c r="C93" s="28"/>
-    </row>
-    <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" s="16" t="s">
+      <c r="B93" s="14"/>
+      <c r="C93" s="21"/>
+    </row>
+    <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="B94" s="21"/>
-      <c r="C94" s="28"/>
-    </row>
-    <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" s="30" t="s">
+      <c r="B94" s="14"/>
+      <c r="C94" s="21"/>
+    </row>
+    <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="B95" s="43"/>
-      <c r="C95" s="44"/>
-    </row>
-    <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="16" t="s">
+      <c r="B95" s="34"/>
+      <c r="C95" s="35"/>
+    </row>
+    <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="B96" s="21"/>
-      <c r="C96" s="28"/>
-    </row>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1">
+      <c r="B96" s="14"/>
+      <c r="C96" s="21"/>
+    </row>
+    <row r="97" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="45" t="s">
         <v>259</v>
       </c>
+      <c r="B98" s="42"/>
+      <c r="C98" s="42"/>
       <c r="E98" s="45" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="99" ht="41.25" customHeight="1">
-      <c r="A99" s="35" t="s">
+      <c r="F98" s="42"/>
+      <c r="G98" s="42"/>
+    </row>
+    <row r="99" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="49" t="s">
         <v>261</v>
       </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="E99" s="35" t="s">
+      <c r="B99" s="47"/>
+      <c r="C99" s="47"/>
+      <c r="E99" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-    </row>
-    <row r="100" ht="13.5" customHeight="1">
-      <c r="A100" s="11" t="s">
+      <c r="F99" s="47"/>
+      <c r="G99" s="47"/>
+    </row>
+    <row r="100" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="11" t="s">
+      <c r="E100" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F100" s="12" t="s">
+      <c r="F100" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G100" s="13" t="s">
+      <c r="G100" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
-      <c r="A101" s="16" t="s">
+    <row r="101" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="F101" s="17" t="s">
+      <c r="F101" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G101" s="23" t="s">
+      <c r="G101" s="16" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" s="16" t="s">
+    <row r="102" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="F102" s="17" t="s">
+      <c r="F102" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="G102" s="23" t="s">
+      <c r="G102" s="16" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
-      <c r="A103" s="16" t="s">
+    <row r="103" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="F103" s="17" t="s">
+      <c r="F103" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="G103" s="23" t="s">
+      <c r="G103" s="16" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" s="16" t="s">
+    <row r="104" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="F104" s="17" t="s">
+      <c r="F104" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="G104" s="23" t="s">
+      <c r="G104" s="16" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
-      <c r="A105" s="16" t="s">
+    <row r="105" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="F105" s="21"/>
-      <c r="G105" s="23" t="s">
+      <c r="F105" s="14"/>
+      <c r="G105" s="16" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
-      <c r="A106" s="16" t="s">
+    <row r="106" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="E106" s="20"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="18"/>
-    </row>
-    <row r="107" ht="14.25" customHeight="1">
-      <c r="A107" s="16" t="s">
+      <c r="E106" s="13"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="11"/>
+    </row>
+    <row r="107" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E107" s="20"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="13" t="s">
+      <c r="E107" s="13"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
-      <c r="A108" s="16" t="s">
+    <row r="108" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="E108" s="20"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="23" t="s">
+      <c r="E108" s="13"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="16" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
-      <c r="A109" s="16" t="s">
+    <row r="109" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="E109" s="20"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="23" t="s">
+      <c r="E109" s="13"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="16" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
-      <c r="E110" s="20"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="23" t="s">
+    <row r="110" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E110" s="13"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="16" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
-      <c r="E111" s="20"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="23" t="s">
+    <row r="111" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E111" s="13"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="16" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
-      <c r="E112" s="20"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="23"/>
-    </row>
-    <row r="113" ht="14.25" customHeight="1">
-      <c r="E113" s="20"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="13" t="s">
+    <row r="112" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E112" s="13"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="16"/>
+    </row>
+    <row r="113" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E113" s="13"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
-      <c r="E114" s="20"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="23" t="s">
+    <row r="114" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E114" s="13"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="16" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
-      <c r="E115" s="20"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="23"/>
-    </row>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
-    <row r="1001" ht="14.25" customHeight="1"/>
-    <row r="1002" ht="14.25" customHeight="1"/>
-    <row r="1003" ht="14.25" customHeight="1"/>
-    <row r="1004" ht="14.25" customHeight="1"/>
-    <row r="1005" ht="14.25" customHeight="1"/>
-    <row r="1006" ht="14.25" customHeight="1"/>
-    <row r="1007" ht="14.25" customHeight="1"/>
-    <row r="1008" ht="14.25" customHeight="1"/>
-    <row r="1009" ht="14.25" customHeight="1"/>
-    <row r="1010" ht="14.25" customHeight="1"/>
-    <row r="1011" ht="14.25" customHeight="1"/>
-    <row r="1012" ht="14.25" customHeight="1"/>
-    <row r="1013" ht="14.25" customHeight="1"/>
-    <row r="1014" ht="14.25" customHeight="1"/>
-    <row r="1015" ht="14.25" customHeight="1"/>
-    <row r="1016" ht="14.25" customHeight="1"/>
-    <row r="1017" ht="14.25" customHeight="1"/>
-    <row r="1018" ht="14.25" customHeight="1"/>
-    <row r="1019" ht="14.25" customHeight="1"/>
-    <row r="1020" ht="14.25" customHeight="1"/>
-    <row r="1021" ht="14.25" customHeight="1"/>
-    <row r="1022" ht="14.25" customHeight="1"/>
-    <row r="1023" ht="14.25" customHeight="1"/>
-    <row r="1024" ht="14.25" customHeight="1"/>
-    <row r="1025" ht="14.25" customHeight="1"/>
-    <row r="1026" ht="14.25" customHeight="1"/>
-    <row r="1027" ht="14.25" customHeight="1"/>
-    <row r="1028" ht="14.25" customHeight="1"/>
-    <row r="1029" ht="14.25" customHeight="1"/>
-    <row r="1030" ht="14.25" customHeight="1"/>
-    <row r="1031" ht="14.25" customHeight="1"/>
-    <row r="1032" ht="14.25" customHeight="1"/>
-    <row r="1033" ht="14.25" customHeight="1"/>
+    <row r="115" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E115" s="13"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="16"/>
+    </row>
+    <row r="116" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1009" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1010" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1011" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1012" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1013" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1014" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1015" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1016" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1017" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1018" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1019" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1020" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1021" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1022" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1023" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1024" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1025" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1026" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1027" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1028" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1029" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1030" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1031" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1032" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1033" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:I3"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A4:I4"/>
@@ -4075,840 +4152,873 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="E98:G98"/>
     <mergeCell ref="E99:G99"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A3"/>
-    <hyperlink r:id="rId2" ref="F3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.0"/>
-    <col customWidth="1" min="2" max="2" width="17.29"/>
-    <col customWidth="1" min="3" max="3" width="34.57"/>
-    <col customWidth="1" min="4" max="4" width="18.57"/>
-    <col customWidth="1" min="5" max="5" width="18.14"/>
-    <col customWidth="1" min="6" max="6" width="21.57"/>
-    <col customWidth="1" min="7" max="7" width="34.14"/>
-    <col customWidth="1" min="8" max="8" width="28.0"/>
-    <col customWidth="1" min="9" max="9" width="22.0"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.0" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="43" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" ht="79.5" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="52" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="E5" s="45" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="17" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="17" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="17" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="17" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="17" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="22"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="16" t="s">
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="23" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="22"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="16" t="s">
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="23" t="s">
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="16" t="s">
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="23" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="16" t="s">
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="23" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="16" t="s">
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="16" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="16" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="16" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="16" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="16"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="23" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="16" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="16"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="23" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="16" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="16"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="23" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="16" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="16"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="16"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="23" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="16" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="23" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="16" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="16"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="23" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="16" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="27" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="23" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="16" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="28" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="23" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="16" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="28" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="23" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="16" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="28" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="23" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="16" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="28" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="23" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="16" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="28" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="23" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="16" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="29"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="23" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="16" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="32"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="23" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="16" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="34"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="23" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="27"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="16" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="34"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="23" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="27"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="16" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="34"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="23" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="16" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="34"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="23" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="27"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="16" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="34"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="23" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="27"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="16" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="34"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="23" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="27"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="16" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="34"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="23" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="27"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="16" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="34"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="23" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="27"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="16" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="34"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="23" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="27"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="16" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="34"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="23" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="27"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="16" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="34"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="23" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="27"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="16" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="34"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="18"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="34"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="13" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="27"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="11"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="27"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="34"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="23" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="27"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="16" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="34"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="18"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="6" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="27"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="11"/>
+    </row>
+    <row r="51" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A51" s="45" t="s">
         <v>147</v>
       </c>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
       <c r="E51" s="45" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="11" t="s">
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="16" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="F53" s="17" t="s">
+      <c r="F53" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G53" s="23" t="s">
+      <c r="G53" s="16" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="16" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="F54" s="17" t="s">
+      <c r="F54" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="G54" s="23" t="s">
+      <c r="G54" s="16" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="16" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="F55" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="G55" s="23" t="s">
+      <c r="G55" s="16" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="20"/>
-      <c r="B56" s="17" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+      <c r="B56" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="E56" s="20"/>
-      <c r="F56" s="17" t="s">
+      <c r="E56" s="13"/>
+      <c r="F56" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="G56" s="23" t="s">
+      <c r="G56" s="16" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="20"/>
-      <c r="B57" s="17" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
+      <c r="B57" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E57" s="20"/>
-      <c r="F57" s="17" t="s">
+      <c r="E57" s="13"/>
+      <c r="F57" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="G57" s="23" t="s">
+      <c r="G57" s="16" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="20"/>
-      <c r="B58" s="17" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+      <c r="B58" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="E58" s="20"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="23" t="s">
+      <c r="E58" s="13"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="16" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="20"/>
-      <c r="B59" s="17" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+      <c r="B59" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="E59" s="20"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="23" t="s">
+      <c r="E59" s="13"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="16" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="20"/>
-      <c r="B60" s="17" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+      <c r="B60" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E60" s="20"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="23" t="s">
+      <c r="E60" s="13"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="20"/>
-      <c r="B61" s="17" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+      <c r="B61" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="E61" s="20"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="23" t="s">
+      <c r="E61" s="13"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="20"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="18"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="46" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="11"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="36" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="18"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="46" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="11"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="36" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="20"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="18"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="46" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="13"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="11"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="36" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="20"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="18"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="13"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="27" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="11"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="E66" s="20"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="13" t="s">
+      <c r="E66" s="13"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="20"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="28" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="E67" s="20"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="23" t="s">
+      <c r="E67" s="13"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="16" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="20"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="28"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="23" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="13"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="21"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="16" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="20"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="28"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="23" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="13"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="21"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="16" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="20"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="28"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="23" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="13"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="21"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="16" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="71">
-      <c r="E71" s="20"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="23" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E71" s="13"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="16" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="72">
-      <c r="E72" s="47"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="48" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E72" s="37"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="38" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="73">
-      <c r="E73" s="47"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="48" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E73" s="37"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="38" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="74">
-      <c r="E74" s="47"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="49"/>
-    </row>
-    <row r="75">
-      <c r="E75" s="47"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="50" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E74" s="37"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="39"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E75" s="37"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="40" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="76">
-      <c r="E76" s="47"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="48" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E76" s="37"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="38" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="77">
-      <c r="E77" s="47"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="49"/>
-    </row>
-    <row r="78">
-      <c r="E78" s="47"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="49"/>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E77" s="37"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="39"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E78" s="37"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4923,8 +5033,8 @@
     <mergeCell ref="E5:H5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A3"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Lainkusanagi OSCP Like (1).xlsx
+++ b/Lainkusanagi OSCP Like (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vatit\Desktop\pnpt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72B3F32-0AF9-4C03-A22C-C42656F7AC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E36A86-B2A8-4587-8491-76D859CD73A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35010" yWindow="930" windowWidth="28800" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OSCP List" sheetId="1" r:id="rId1"/>
@@ -1501,7 +1501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1549,19 +1549,12 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1578,11 +1571,19 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1801,7 +1802,7 @@
   <dimension ref="A1:I1033"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1820,87 +1821,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="E5" s="45" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="E5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1929,10 +1930,10 @@
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="12"/>
@@ -1979,7 +1980,7 @@
       <c r="B10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="55" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -2002,7 +2003,7 @@
       <c r="B11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="55" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="13" t="s">
@@ -2460,28 +2461,28 @@
     </row>
     <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="E47" s="45" t="s">
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="E47" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
     </row>
     <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="E48" s="51" t="s">
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="E48" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
     </row>
     <row r="49" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
@@ -3038,28 +3039,28 @@
     </row>
     <row r="97" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="45" t="s">
+      <c r="A98" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="B98" s="42"/>
-      <c r="C98" s="42"/>
-      <c r="E98" s="45" t="s">
+      <c r="B98" s="44"/>
+      <c r="C98" s="44"/>
+      <c r="E98" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="F98" s="42"/>
-      <c r="G98" s="42"/>
+      <c r="F98" s="44"/>
+      <c r="G98" s="44"/>
     </row>
     <row r="99" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="49" t="s">
+      <c r="A99" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="B99" s="47"/>
-      <c r="C99" s="47"/>
-      <c r="E99" s="49" t="s">
+      <c r="B99" s="46"/>
+      <c r="C99" s="46"/>
+      <c r="E99" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="F99" s="47"/>
-      <c r="G99" s="47"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="46"/>
     </row>
     <row r="100" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
@@ -4139,6 +4140,11 @@
     <row r="1033" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:I3"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A4:I4"/>
@@ -4152,11 +4158,6 @@
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="E98:G98"/>
     <mergeCell ref="E99:G99"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:I3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -4191,60 +4192,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="53" t="s">
         <v>292</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="E5" s="45" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="E5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -4699,16 +4700,16 @@
       <c r="C49" s="11"/>
     </row>
     <row r="51" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="E51" s="45" t="s">
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="E51" s="43" t="s">
         <v>353</v>
       </c>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
